--- a/testfiles/25/original_packing_list.xlsx
+++ b/testfiles/25/original_packing_list.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name=" 2021年最新版本" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$3:$AA$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$1:$AA$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$4:$AA$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$2:$AA$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,31 +36,6 @@
     <author>123</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">给工厂的时候需删除此列
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给工厂的时候需删除此列</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Z2" authorId="0">
       <text>
         <r>
@@ -75,6 +50,31 @@
       </text>
     </comment>
     <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1865,10 +1865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A2:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="30" customHeight="1"/>
@@ -1894,261 +1894,177 @@
     <col min="16374" max="16384" width="10.6363636363636" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A1" s="12" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="63" t="s">
+      <c r="X2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AA2" s="77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="23" spans="1:27">
-      <c r="A2" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="23" spans="1:27">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U3" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AA3" s="77" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="38">
-        <v>2</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="40">
-        <f ca="1" t="shared" ref="M3:M8" si="0">ROUND(EVALUATE(L3)*1000*0.000000001,2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="N3" s="40">
-        <f ca="1" t="shared" ref="N3:N8" si="1">M3*T3</f>
-        <v>0.04</v>
-      </c>
-      <c r="O3" s="40">
-        <v>7.54</v>
-      </c>
-      <c r="P3" s="41">
-        <f>O3*T3</f>
-        <v>7.54</v>
-      </c>
-      <c r="Q3" s="41">
-        <v>7.3</v>
-      </c>
-      <c r="R3" s="17">
-        <v>7.3</v>
-      </c>
-      <c r="S3" s="17">
-        <v>2</v>
-      </c>
-      <c r="T3" s="17">
-        <f>J3/S3</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="78">
-        <v>480</v>
-      </c>
-      <c r="AA3" s="79">
-        <v>0.13</v>
-      </c>
-      <c r="AB3" s="80"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2161,16 +2077,16 @@
         <v>57</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>67</v>
+      <c r="I4" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="J4" s="38">
         <v>2</v>
@@ -2182,18 +2098,18 @@
         <v>62</v>
       </c>
       <c r="M4" s="40">
-        <f ca="1" t="shared" si="0"/>
+        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.04</v>
       </c>
       <c r="N4" s="40">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1" t="shared" ref="N4:N9" si="1">M4*T4</f>
         <v>0.04</v>
       </c>
       <c r="O4" s="40">
         <v>7.54</v>
       </c>
       <c r="P4" s="41">
-        <f t="shared" ref="P4:P14" si="2">O4*T4</f>
+        <f>O4*T4</f>
         <v>7.54</v>
       </c>
       <c r="Q4" s="41">
@@ -2206,11 +2122,11 @@
         <v>2</v>
       </c>
       <c r="T4" s="17">
-        <f t="shared" ref="T4:T14" si="3">J4/S4</f>
+        <f>J4/S4</f>
         <v>1</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="V4" s="65"/>
       <c r="W4" s="65"/>
@@ -2230,7 +2146,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>54</v>
@@ -2245,7 +2161,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>59</v>
@@ -2254,7 +2170,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J5" s="38">
         <v>2</v>
@@ -2277,7 +2193,7 @@
         <v>7.54</v>
       </c>
       <c r="P5" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P5:P15" si="2">O5*T5</f>
         <v>7.54</v>
       </c>
       <c r="Q5" s="41">
@@ -2290,11 +2206,11 @@
         <v>2</v>
       </c>
       <c r="T5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T5:T15" si="3">J5/S5</f>
         <v>1</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="V5" s="65"/>
       <c r="W5" s="65"/>
@@ -2314,10 +2230,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A6" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>55</v>
@@ -2329,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>59</v>
@@ -2338,7 +2254,7 @@
         <v>59</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J6" s="38">
         <v>2</v>
@@ -2378,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V6" s="65"/>
       <c r="W6" s="65"/>
@@ -2398,7 +2314,7 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A7" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>72</v>
@@ -2413,7 +2329,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>59</v>
@@ -2422,7 +2338,7 @@
         <v>59</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" s="38">
         <v>2</v>
@@ -2462,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V7" s="65"/>
       <c r="W7" s="65"/>
@@ -2482,10 +2398,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>79</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>55</v>
@@ -2497,16 +2413,16 @@
         <v>57</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="J8" s="38">
         <v>2</v>
@@ -2514,39 +2430,39 @@
       <c r="K8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="42" t="s">
-        <v>83</v>
+      <c r="L8" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="M8" s="40">
         <f ca="1" t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N8" s="40">
         <f ca="1" t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="O8" s="40">
-        <v>14.18</v>
-      </c>
-      <c r="P8" s="43">
+        <v>7.54</v>
+      </c>
+      <c r="P8" s="41">
         <f t="shared" si="2"/>
-        <v>14.18</v>
+        <v>7.54</v>
       </c>
       <c r="Q8" s="41">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="R8" s="17">
-        <v>3.4</v>
-      </c>
-      <c r="S8" s="38">
+        <v>7.3</v>
+      </c>
+      <c r="S8" s="17">
         <v>2</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="68" t="s">
-        <v>84</v>
+      <c r="U8" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="V8" s="65"/>
       <c r="W8" s="65"/>
@@ -2557,7 +2473,7 @@
         <v>65</v>
       </c>
       <c r="Z8" s="78">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AA8" s="79">
         <v>0.13</v>
@@ -2566,7 +2482,7 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A9" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>79</v>
@@ -2581,7 +2497,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>81</v>
@@ -2590,7 +2506,7 @@
         <v>81</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J9" s="38">
         <v>2</v>
@@ -2598,11 +2514,24 @@
       <c r="K9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="46"/>
+      <c r="L9" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="40">
+        <f ca="1" t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="40">
+        <f ca="1" t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="O9" s="40">
+        <v>14.18</v>
+      </c>
+      <c r="P9" s="43">
+        <f t="shared" si="2"/>
+        <v>14.18</v>
+      </c>
       <c r="Q9" s="41">
         <v>3.4</v>
       </c>
@@ -2612,8 +2541,13 @@
       <c r="S9" s="38">
         <v>2</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="70"/>
+      <c r="T9" s="67">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="68" t="s">
+        <v>84</v>
+      </c>
       <c r="V9" s="65"/>
       <c r="W9" s="65"/>
       <c r="X9" s="66" t="s">
@@ -2632,7 +2566,7 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A10" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>79</v>
@@ -2647,7 +2581,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>81</v>
@@ -2656,7 +2590,7 @@
         <v>81</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="38">
         <v>2</v>
@@ -2698,7 +2632,7 @@
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A11" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>79</v>
@@ -2713,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>81</v>
@@ -2722,7 +2656,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="38">
         <v>2</v>
@@ -2730,11 +2664,11 @@
       <c r="K11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="45"/>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
-      <c r="P11" s="48"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="41">
         <v>3.4</v>
       </c>
@@ -2744,8 +2678,8 @@
       <c r="S11" s="38">
         <v>2</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="65"/>
       <c r="W11" s="65"/>
       <c r="X11" s="66" t="s">
@@ -2764,13 +2698,13 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A12" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>56</v>
@@ -2779,57 +2713,39 @@
         <v>57</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="49">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="J12" s="38">
+        <v>2</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="40">
-        <f ca="1">ROUND(EVALUATE(L12)*1000*0.000000001,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="N12" s="40">
-        <f ca="1">M12*T12</f>
-        <v>0.09</v>
-      </c>
-      <c r="O12" s="40">
-        <v>31</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="41">
-        <v>25</v>
+        <v>3.4</v>
       </c>
       <c r="R12" s="17">
-        <v>25</v>
-      </c>
-      <c r="S12" s="49">
-        <v>25</v>
-      </c>
-      <c r="T12" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="64" t="s">
-        <v>97</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="S12" s="38">
+        <v>2</v>
+      </c>
+      <c r="T12" s="51"/>
+      <c r="U12" s="71"/>
       <c r="V12" s="65"/>
       <c r="W12" s="65"/>
       <c r="X12" s="66" t="s">
@@ -2839,7 +2755,7 @@
         <v>65</v>
       </c>
       <c r="Z12" s="78">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="AA12" s="79">
         <v>0.13</v>
@@ -2848,7 +2764,7 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A13" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>91</v>
@@ -2863,7 +2779,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>94</v>
@@ -2872,7 +2788,7 @@
         <v>94</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J13" s="49">
         <v>25</v>
@@ -2881,7 +2797,7 @@
         <v>61</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M13" s="40">
         <f ca="1">ROUND(EVALUATE(L13)*1000*0.000000001,2)</f>
@@ -2892,11 +2808,11 @@
         <v>0.09</v>
       </c>
       <c r="O13" s="40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="41">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="41">
         <v>25</v>
@@ -2912,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="64" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V13" s="65"/>
       <c r="W13" s="65"/>
@@ -2932,7 +2848,7 @@
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A14" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>91</v>
@@ -2947,7 +2863,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>94</v>
@@ -2956,7 +2872,7 @@
         <v>94</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J14" s="49">
         <v>25</v>
@@ -2965,7 +2881,7 @@
         <v>61</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M14" s="40">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
@@ -2996,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="V14" s="65"/>
       <c r="W14" s="65"/>
@@ -3016,105 +2932,185 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A15" s="17">
-        <v>13</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="72"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="49">
+        <v>25</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="40">
+        <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N15" s="40">
+        <f ca="1">M15*T15</f>
+        <v>0.09</v>
+      </c>
+      <c r="O15" s="40">
+        <v>30</v>
+      </c>
+      <c r="P15" s="41">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>25</v>
+      </c>
+      <c r="R15" s="17">
+        <v>25</v>
+      </c>
+      <c r="S15" s="49">
+        <v>25</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="64" t="s">
+        <v>105</v>
+      </c>
       <c r="V15" s="65"/>
       <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="79"/>
+      <c r="X15" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z15" s="78">
+        <v>195</v>
+      </c>
+      <c r="AA15" s="79">
+        <v>0.13</v>
+      </c>
       <c r="AB15" s="80"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="79"/>
       <c r="AB16" s="80"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="57">
-        <f>SUM(J3:J15)</f>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="80"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="57">
+        <f>SUM(J4:J16)</f>
         <v>93</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59" t="e">
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60">
-        <f>SUM(P3:P15)</f>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60">
+        <f>SUM(P4:P16)</f>
         <v>142.88</v>
       </c>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="82"/>
-    </row>
-    <row r="18" customHeight="1" spans="26:27">
+      <c r="Q18" s="60"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
       <c r="Z18" s="81"/>
       <c r="AA18" s="82"/>
     </row>
@@ -3174,29 +3170,33 @@
       <c r="Z32" s="81"/>
       <c r="AA32" s="82"/>
     </row>
+    <row r="33" customHeight="1" spans="26:27">
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="82"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="U8:U11"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B65473">
+  <conditionalFormatting sqref="B19:B65474">
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testfiles/25/original_packing_list.xlsx
+++ b/testfiles/25/original_packing_list.xlsx
@@ -10,8 +10,8 @@
     <sheet name=" 2021年最新版本" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$3:$AA$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$1:$AA$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$4:$AA$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$2:$AA$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,31 +36,6 @@
     <author>123</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">给工厂的时候需删除此列
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给工厂的时候需删除此列</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Z2" authorId="0">
       <text>
         <r>
@@ -86,6 +61,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -428,7 +428,7 @@
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +484,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1044,133 +1050,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
@@ -1387,16 +1393,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1458,11 +1464,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1474,7 +1480,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1865,10 +1871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A2:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="30" customHeight="1"/>
@@ -1894,261 +1900,177 @@
     <col min="16374" max="16384" width="10.6363636363636" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A1" s="12" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="63" t="s">
+      <c r="X2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AA2" s="77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="23" spans="1:27">
-      <c r="A2" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="23" spans="1:27">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U3" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AA3" s="77" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="38">
-        <v>2</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="40">
-        <f ca="1" t="shared" ref="M3:M8" si="0">ROUND(EVALUATE(L3)*1000*0.000000001,2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="N3" s="40">
-        <f ca="1" t="shared" ref="N3:N8" si="1">M3*T3</f>
-        <v>0.04</v>
-      </c>
-      <c r="O3" s="40">
-        <v>7.54</v>
-      </c>
-      <c r="P3" s="41">
-        <f>O3*T3</f>
-        <v>7.54</v>
-      </c>
-      <c r="Q3" s="41">
-        <v>7.3</v>
-      </c>
-      <c r="R3" s="17">
-        <v>7.3</v>
-      </c>
-      <c r="S3" s="17">
-        <v>2</v>
-      </c>
-      <c r="T3" s="17">
-        <f>J3/S3</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="78">
-        <v>480</v>
-      </c>
-      <c r="AA3" s="79">
-        <v>0.13</v>
-      </c>
-      <c r="AB3" s="80"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2161,16 +2083,16 @@
         <v>57</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>67</v>
+      <c r="I4" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="J4" s="38">
         <v>2</v>
@@ -2182,18 +2104,18 @@
         <v>62</v>
       </c>
       <c r="M4" s="40">
-        <f ca="1" t="shared" si="0"/>
+        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.04</v>
       </c>
       <c r="N4" s="40">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1" t="shared" ref="N4:N9" si="1">M4*T4</f>
         <v>0.04</v>
       </c>
       <c r="O4" s="40">
         <v>7.54</v>
       </c>
       <c r="P4" s="41">
-        <f t="shared" ref="P4:P14" si="2">O4*T4</f>
+        <f>O4*T4</f>
         <v>7.54</v>
       </c>
       <c r="Q4" s="41">
@@ -2206,11 +2128,11 @@
         <v>2</v>
       </c>
       <c r="T4" s="17">
-        <f t="shared" ref="T4:T14" si="3">J4/S4</f>
+        <f>J4/S4</f>
         <v>1</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="V4" s="65"/>
       <c r="W4" s="65"/>
@@ -2230,7 +2152,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>54</v>
@@ -2245,7 +2167,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>59</v>
@@ -2254,7 +2176,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J5" s="38">
         <v>2</v>
@@ -2277,7 +2199,7 @@
         <v>7.54</v>
       </c>
       <c r="P5" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P5:P15" si="2">O5*T5</f>
         <v>7.54</v>
       </c>
       <c r="Q5" s="41">
@@ -2290,11 +2212,11 @@
         <v>2</v>
       </c>
       <c r="T5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T5:T15" si="3">J5/S5</f>
         <v>1</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="V5" s="65"/>
       <c r="W5" s="65"/>
@@ -2314,10 +2236,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A6" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>55</v>
@@ -2329,7 +2251,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>59</v>
@@ -2338,7 +2260,7 @@
         <v>59</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J6" s="38">
         <v>2</v>
@@ -2378,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V6" s="65"/>
       <c r="W6" s="65"/>
@@ -2398,7 +2320,7 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A7" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>72</v>
@@ -2413,7 +2335,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>59</v>
@@ -2422,7 +2344,7 @@
         <v>59</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" s="38">
         <v>2</v>
@@ -2462,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V7" s="65"/>
       <c r="W7" s="65"/>
@@ -2482,10 +2404,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>79</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>55</v>
@@ -2497,16 +2419,16 @@
         <v>57</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="J8" s="38">
         <v>2</v>
@@ -2514,39 +2436,39 @@
       <c r="K8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="42" t="s">
-        <v>83</v>
+      <c r="L8" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="M8" s="40">
         <f ca="1" t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N8" s="40">
         <f ca="1" t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="O8" s="40">
-        <v>14.18</v>
-      </c>
-      <c r="P8" s="43">
+        <v>7.54</v>
+      </c>
+      <c r="P8" s="41">
         <f t="shared" si="2"/>
-        <v>14.18</v>
+        <v>7.54</v>
       </c>
       <c r="Q8" s="41">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="R8" s="17">
-        <v>3.4</v>
-      </c>
-      <c r="S8" s="38">
+        <v>7.3</v>
+      </c>
+      <c r="S8" s="17">
         <v>2</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="68" t="s">
-        <v>84</v>
+      <c r="U8" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="V8" s="65"/>
       <c r="W8" s="65"/>
@@ -2557,7 +2479,7 @@
         <v>65</v>
       </c>
       <c r="Z8" s="78">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AA8" s="79">
         <v>0.13</v>
@@ -2566,7 +2488,7 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A9" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>79</v>
@@ -2581,7 +2503,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>81</v>
@@ -2590,7 +2512,7 @@
         <v>81</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J9" s="38">
         <v>2</v>
@@ -2598,11 +2520,24 @@
       <c r="K9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="46"/>
+      <c r="L9" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="40">
+        <f ca="1" t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="40">
+        <f ca="1" t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="O9" s="40">
+        <v>14.18</v>
+      </c>
+      <c r="P9" s="43">
+        <f t="shared" si="2"/>
+        <v>14.18</v>
+      </c>
       <c r="Q9" s="41">
         <v>3.4</v>
       </c>
@@ -2612,8 +2547,13 @@
       <c r="S9" s="38">
         <v>2</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="70"/>
+      <c r="T9" s="67">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="68" t="s">
+        <v>84</v>
+      </c>
       <c r="V9" s="65"/>
       <c r="W9" s="65"/>
       <c r="X9" s="66" t="s">
@@ -2632,7 +2572,7 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A10" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>79</v>
@@ -2647,7 +2587,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>81</v>
@@ -2656,7 +2596,7 @@
         <v>81</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="38">
         <v>2</v>
@@ -2698,7 +2638,7 @@
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A11" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>79</v>
@@ -2713,7 +2653,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>81</v>
@@ -2722,7 +2662,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="38">
         <v>2</v>
@@ -2730,11 +2670,11 @@
       <c r="K11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="45"/>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
-      <c r="P11" s="48"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="41">
         <v>3.4</v>
       </c>
@@ -2744,8 +2684,8 @@
       <c r="S11" s="38">
         <v>2</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="65"/>
       <c r="W11" s="65"/>
       <c r="X11" s="66" t="s">
@@ -2764,13 +2704,13 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A12" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>56</v>
@@ -2779,57 +2719,39 @@
         <v>57</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="49">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="J12" s="38">
+        <v>2</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="40">
-        <f ca="1">ROUND(EVALUATE(L12)*1000*0.000000001,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="N12" s="40">
-        <f ca="1">M12*T12</f>
-        <v>0.09</v>
-      </c>
-      <c r="O12" s="40">
-        <v>31</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="41">
-        <v>25</v>
+        <v>3.4</v>
       </c>
       <c r="R12" s="17">
-        <v>25</v>
-      </c>
-      <c r="S12" s="49">
-        <v>25</v>
-      </c>
-      <c r="T12" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="64" t="s">
-        <v>97</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="S12" s="38">
+        <v>2</v>
+      </c>
+      <c r="T12" s="51"/>
+      <c r="U12" s="71"/>
       <c r="V12" s="65"/>
       <c r="W12" s="65"/>
       <c r="X12" s="66" t="s">
@@ -2839,7 +2761,7 @@
         <v>65</v>
       </c>
       <c r="Z12" s="78">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="AA12" s="79">
         <v>0.13</v>
@@ -2848,7 +2770,7 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A13" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>91</v>
@@ -2863,7 +2785,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>94</v>
@@ -2872,7 +2794,7 @@
         <v>94</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J13" s="49">
         <v>25</v>
@@ -2881,7 +2803,7 @@
         <v>61</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M13" s="40">
         <f ca="1">ROUND(EVALUATE(L13)*1000*0.000000001,2)</f>
@@ -2892,11 +2814,11 @@
         <v>0.09</v>
       </c>
       <c r="O13" s="40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="41">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="41">
         <v>25</v>
@@ -2912,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="64" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V13" s="65"/>
       <c r="W13" s="65"/>
@@ -2932,7 +2854,7 @@
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A14" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>91</v>
@@ -2947,7 +2869,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>94</v>
@@ -2956,7 +2878,7 @@
         <v>94</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J14" s="49">
         <v>25</v>
@@ -2965,7 +2887,7 @@
         <v>61</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M14" s="40">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
@@ -2996,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="V14" s="65"/>
       <c r="W14" s="65"/>
@@ -3016,105 +2938,188 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A15" s="17">
-        <v>13</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="72"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="49">
+        <v>25</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="40">
+        <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N15" s="40">
+        <f ca="1">M15*T15</f>
+        <v>0.09</v>
+      </c>
+      <c r="O15" s="40">
+        <v>30</v>
+      </c>
+      <c r="P15" s="41">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>25</v>
+      </c>
+      <c r="R15" s="17">
+        <v>25</v>
+      </c>
+      <c r="S15" s="49">
+        <v>25</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="64" t="s">
+        <v>105</v>
+      </c>
       <c r="V15" s="65"/>
       <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="79"/>
+      <c r="X15" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z15" s="78">
+        <v>195</v>
+      </c>
+      <c r="AA15" s="79">
+        <v>0.13</v>
+      </c>
       <c r="AB15" s="80"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="79"/>
       <c r="AB16" s="80"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="57">
-        <f>SUM(J3:J15)</f>
-        <v>93</v>
-      </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60">
-        <f>SUM(P3:P15)</f>
-        <v>142.88</v>
-      </c>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
       <c r="Z17" s="81"/>
       <c r="AA17" s="82"/>
+      <c r="AB17" s="80"/>
     </row>
-    <row r="18" customHeight="1" spans="26:27">
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="57">
+        <f>SUM(J4:J16)</f>
+        <v>93</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59">
+        <f ca="1" t="shared" ref="M18:R18" si="4">SUM(M4:M16)</f>
+        <v>0.49</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60">
+        <f t="shared" si="4"/>
+        <v>142.88</v>
+      </c>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60">
+        <f t="shared" si="4"/>
+        <v>125.1</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
       <c r="Z18" s="81"/>
       <c r="AA18" s="82"/>
     </row>
@@ -3174,29 +3179,33 @@
       <c r="Z32" s="81"/>
       <c r="AA32" s="82"/>
     </row>
+    <row r="33" customHeight="1" spans="26:27">
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="82"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="U8:U11"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B65473">
+  <conditionalFormatting sqref="B19:B65474">
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testfiles/25/original_packing_list.xlsx
+++ b/testfiles/25/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name=" 2021年最新版本" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
   <si>
     <t>S/N</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>大华</t>
-  </si>
-  <si>
-    <t>Silvassa</t>
   </si>
   <si>
     <t>Step stencil-DH 92_164 TOP</t>
@@ -1873,8 +1870,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="30" customHeight="1"/>
@@ -2079,29 +2076,29 @@
       <c r="D4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="J4" s="38">
         <v>2</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="M4" s="40">
         <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
@@ -2132,15 +2129,15 @@
         <v>1</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V4" s="65"/>
       <c r="W4" s="65"/>
       <c r="X4" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z4" s="78">
         <v>480</v>
@@ -2163,29 +2160,29 @@
       <c r="D5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>57</v>
+      <c r="E5" s="19">
+        <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="J5" s="38">
         <v>2</v>
       </c>
       <c r="K5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="M5" s="40">
         <f ca="1" t="shared" si="0"/>
@@ -2216,15 +2213,15 @@
         <v>1</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V5" s="65"/>
       <c r="W5" s="65"/>
       <c r="X5" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y5" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z5" s="78">
         <v>480</v>
@@ -2247,29 +2244,29 @@
       <c r="D6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>57</v>
+      <c r="E6" s="19">
+        <v>3</v>
       </c>
       <c r="F6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="J6" s="38">
         <v>2</v>
       </c>
       <c r="K6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="M6" s="40">
         <f ca="1" t="shared" si="0"/>
@@ -2300,15 +2297,15 @@
         <v>1</v>
       </c>
       <c r="U6" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V6" s="65"/>
       <c r="W6" s="65"/>
       <c r="X6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y6" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z6" s="78">
         <v>480</v>
@@ -2323,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>55</v>
@@ -2331,29 +2328,29 @@
       <c r="D7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>57</v>
+      <c r="E7" s="19">
+        <v>4</v>
       </c>
       <c r="F7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="J7" s="38">
         <v>2</v>
       </c>
       <c r="K7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="M7" s="40">
         <f ca="1" t="shared" si="0"/>
@@ -2384,15 +2381,15 @@
         <v>1</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V7" s="65"/>
       <c r="W7" s="65"/>
       <c r="X7" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y7" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z7" s="78">
         <v>480</v>
@@ -2407,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>55</v>
@@ -2415,29 +2412,29 @@
       <c r="D8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>57</v>
+      <c r="E8" s="19">
+        <v>5</v>
       </c>
       <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="J8" s="38">
         <v>2</v>
       </c>
       <c r="K8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="M8" s="40">
         <f ca="1" t="shared" si="0"/>
@@ -2468,15 +2465,15 @@
         <v>1</v>
       </c>
       <c r="U8" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V8" s="65"/>
       <c r="W8" s="65"/>
       <c r="X8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y8" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z8" s="78">
         <v>480</v>
@@ -2491,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>55</v>
@@ -2499,29 +2496,29 @@
       <c r="D9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>57</v>
+      <c r="E9" s="19">
+        <v>6</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="H9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="J9" s="38">
         <v>2</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="40">
         <f ca="1" t="shared" si="0"/>
@@ -2552,15 +2549,15 @@
         <v>1</v>
       </c>
       <c r="U9" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V9" s="65"/>
       <c r="W9" s="65"/>
       <c r="X9" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y9" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z9" s="78">
         <v>460</v>
@@ -2575,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>55</v>
@@ -2583,26 +2580,26 @@
       <c r="D10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>57</v>
+      <c r="E10" s="19">
+        <v>7</v>
       </c>
       <c r="F10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="J10" s="38">
         <v>2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="45"/>
@@ -2623,10 +2620,10 @@
       <c r="V10" s="65"/>
       <c r="W10" s="65"/>
       <c r="X10" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y10" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z10" s="78">
         <v>460</v>
@@ -2641,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>55</v>
@@ -2649,26 +2646,26 @@
       <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>57</v>
+      <c r="E11" s="19">
+        <v>8</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="J11" s="38">
         <v>2</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45"/>
@@ -2689,10 +2686,10 @@
       <c r="V11" s="65"/>
       <c r="W11" s="65"/>
       <c r="X11" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y11" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z11" s="78">
         <v>460</v>
@@ -2707,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>55</v>
@@ -2715,26 +2712,26 @@
       <c r="D12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>57</v>
+      <c r="E12" s="19">
+        <v>9</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="J12" s="38">
         <v>2</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="47"/>
       <c r="M12" s="45"/>
@@ -2755,10 +2752,10 @@
       <c r="V12" s="65"/>
       <c r="W12" s="65"/>
       <c r="X12" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y12" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z12" s="78">
         <v>460</v>
@@ -2773,37 +2770,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>57</v>
+      <c r="E13" s="19">
+        <v>10</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="J13" s="49">
         <v>25</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="40">
         <f ca="1">ROUND(EVALUATE(L13)*1000*0.000000001,2)</f>
@@ -2834,15 +2831,15 @@
         <v>1</v>
       </c>
       <c r="U13" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V13" s="65"/>
       <c r="W13" s="65"/>
       <c r="X13" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y13" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y13" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z13" s="78">
         <v>195</v>
@@ -2857,37 +2854,37 @@
         <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>57</v>
+      <c r="E14" s="19">
+        <v>11</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="J14" s="49">
         <v>25</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="40">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
@@ -2918,15 +2915,15 @@
         <v>1</v>
       </c>
       <c r="U14" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V14" s="65"/>
       <c r="W14" s="65"/>
       <c r="X14" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y14" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z14" s="78">
         <v>195</v>
@@ -2941,37 +2938,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
+      <c r="E15" s="19">
+        <v>12</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="J15" s="49">
         <v>25</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M15" s="40">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
@@ -3002,15 +2999,15 @@
         <v>1</v>
       </c>
       <c r="U15" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V15" s="65"/>
       <c r="W15" s="65"/>
       <c r="X15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y15" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="Y15" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="Z15" s="78">
         <v>195</v>
